--- a/words.xlsx
+++ b/words.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84982\Desktop\quizlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75BCC50-20BF-43FA-97E1-76DF9DEB2EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C663F102-31AC-43DD-A237-D65790AC4787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="895" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University-Life" sheetId="2" r:id="rId1"/>
     <sheet name="Arts" sheetId="8" r:id="rId2"/>
     <sheet name="Geography" sheetId="12" r:id="rId3"/>
-    <sheet name="Economy-Market" sheetId="6" r:id="rId4"/>
-    <sheet name="Health" sheetId="3" r:id="rId5"/>
-    <sheet name="Chemistry-Compound" sheetId="5" r:id="rId6"/>
+    <sheet name="Market" sheetId="6" r:id="rId4"/>
+    <sheet name="Health&amp;Food" sheetId="3" r:id="rId5"/>
+    <sheet name="Polution" sheetId="5" r:id="rId6"/>
     <sheet name="Politics-Law" sheetId="7" r:id="rId7"/>
     <sheet name="Nature-phenomenon" sheetId="9" r:id="rId8"/>
-    <sheet name="Species" sheetId="13" r:id="rId9"/>
-    <sheet name="Animals" sheetId="14" r:id="rId10"/>
+    <sheet name="Biology-Organ" sheetId="13" r:id="rId9"/>
+    <sheet name="Species" sheetId="14" r:id="rId10"/>
     <sheet name="Sports" sheetId="10" r:id="rId11"/>
     <sheet name="Urban" sheetId="15" r:id="rId12"/>
     <sheet name="Religion" sheetId="11" r:id="rId13"/>
-    <sheet name="Characteristic" sheetId="1" r:id="rId14"/>
+    <sheet name="Agricuture" sheetId="17" r:id="rId14"/>
+    <sheet name="Characteristic" sheetId="1" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1140">
   <si>
     <t>pronounces</t>
   </si>
@@ -271,9 +272,6 @@
     <t>carbon dioxide</t>
   </si>
   <si>
-    <t>(CO2) Sources include the combustion of fossil fuels. Effects: greenhouse gas-contributes to global warming. Reduction accomplished by increased fuel efficiency (gas mileage), mass transit (reduction).</t>
-  </si>
-  <si>
     <t>Calcium</t>
   </si>
   <si>
@@ -376,18 +374,12 @@
     <t>/ˈredʒɪstər/</t>
   </si>
   <si>
-    <t>(n.) an official list or record of names, items, etc.; a book that contains such a list | (v.) to record your/somebody’s/something’s name on an official list</t>
-  </si>
-  <si>
     <t>promotion</t>
   </si>
   <si>
     <t>/prəˈməʊʃn/</t>
   </si>
   <si>
-    <t>(n.) a move to a more important job or rank in a company or an organization. (promotion to something) Her promotion to Sales Manager took everyone by surprise. khuyến mãi or  sự thăng cấp</t>
-  </si>
-  <si>
     <t>promote</t>
   </si>
   <si>
@@ -1117,9 +1109,6 @@
     <t>/ˈrɪtʃuəl/</t>
   </si>
   <si>
-    <t>(n.) a series of actions that are always performed in the same way, especially as part of a religious ceremony, nghi thức</t>
-  </si>
-  <si>
     <t>spring up</t>
   </si>
   <si>
@@ -1139,9 +1128,6 @@
   </si>
   <si>
     <t>/ˈspɑːnsər/</t>
-  </si>
-  <si>
-    <t>(n.) A person or group who provides resources and support for the project, program, or portfolio and is accountable for enabling success. (v.) to assume responsibility for someone else; to promise to pay for someone's expenses</t>
   </si>
   <si>
     <t>calamity</t>
@@ -1490,9 +1476,6 @@
     <t>/ˈmaməl/</t>
   </si>
   <si>
-    <t>insects</t>
-  </si>
-  <si>
     <t>(n.) (n) côn trùng, sâu bọ</t>
   </si>
   <si>
@@ -1502,9 +1485,6 @@
     <t>/ˈsensəri/</t>
   </si>
   <si>
-    <t>(adj) connected with your physical senses | Exam  the sensory overload of contemporary culture</t>
-  </si>
-  <si>
     <t>instinct</t>
   </si>
   <si>
@@ -1532,12 +1512,6 @@
     <t>(n.) external skeleton; tough external covering that protects and supports the body of many invertebrates</t>
   </si>
   <si>
-    <t>jointed legs</t>
-  </si>
-  <si>
-    <t>(n.) khớp chân</t>
-  </si>
-  <si>
     <t>phylum</t>
   </si>
   <si>
@@ -1607,15 +1581,6 @@
     <t>(n.)  lá, tấm, phiến, tờ / chăn, khăn trải giường;</t>
   </si>
   <si>
-    <t>fiber</t>
-  </si>
-  <si>
-    <t>/ˈfībər/</t>
-  </si>
-  <si>
-    <t>(n) chất xơ, sợi / người khoác lác</t>
-  </si>
-  <si>
     <t>waxes</t>
   </si>
   <si>
@@ -2135,9 +2100,6 @@
     <t xml:space="preserve">suburban </t>
   </si>
   <si>
-    <t>(adj.)  [usually before noun] in or connected with a suburb. Exam: life in suburban London |(adj.) boring and ordinary  vd: a suburban lifestyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">suburbanite </t>
   </si>
   <si>
@@ -2180,9 +2142,6 @@
     <t>/ˌtrænspərˈteɪʃn/</t>
   </si>
   <si>
-    <t>(n.)  a system for carrying people or goods from one place to another using vehicles, roads, etc. : Exam - air/rail/bus transportation</t>
-  </si>
-  <si>
     <t xml:space="preserve">cart </t>
   </si>
   <si>
@@ -2348,9 +2307,6 @@
     <t>/'pəuit/ or /ˈpəʊət/</t>
   </si>
   <si>
-    <t>backdrop</t>
-  </si>
-  <si>
     <t>metropolis</t>
   </si>
   <si>
@@ -2438,9 +2394,6 @@
     <t>/ˈmaɪɡreɪt/</t>
   </si>
   <si>
-    <t>(v.) ) to move from one part of the world to another according to the season (birds) or to move from one town, country, etc. to go and live and/or work in another</t>
-  </si>
-  <si>
     <t>mitigate</t>
   </si>
   <si>
@@ -2553,6 +2506,969 @@
   </si>
   <si>
     <t>(adj.) ẩm ướt| Exam: Keep the soil in the pot __, but not too wet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CO2) Sources include the combustion of fossil fuels. Effects: greenhouse gas-contributes to global warming. </t>
+  </si>
+  <si>
+    <t>(v.) ) to move from one regionto another according to the season (birds) or to move from one town, country, etc. to go and live and/or work in another</t>
+  </si>
+  <si>
+    <t>sovereign</t>
+  </si>
+  <si>
+    <t>/ˈsɑːvrɪn/</t>
+  </si>
+  <si>
+    <t>(n.) king/queen |  (adj.) completely independent or having complete power or the greatest power in the country</t>
+  </si>
+  <si>
+    <t>veneration</t>
+  </si>
+  <si>
+    <t>/ˌvenəˈreɪʃn/</t>
+  </si>
+  <si>
+    <t>(n.) the act of showing a lot of respect for somebody/something very important, ton tho, ton kinh</t>
+  </si>
+  <si>
+    <t>(n.) a series of actions that are always performed in religious ceremony, nghi thức</t>
+  </si>
+  <si>
+    <t>(n.) an official list or record of names, items, etc.;  | (v.) to record your/somebody’s/something’s name on an official list</t>
+  </si>
+  <si>
+    <t>(n.) a move to a more important job or rank in a company or an organization.  khuyến mãi or  sự thăng cấp : ___ to something</t>
+  </si>
+  <si>
+    <t>(n.) person/group who provides resources and support for the project, program, or portfolio. (v.) to assume responsibility for someone else; to promise to pay for someone's expenses</t>
+  </si>
+  <si>
+    <t>(n.)  a system for carrying people or goods from one place to another using vehicles, roads, etc. : Exam - air/rail/bus ____</t>
+  </si>
+  <si>
+    <t>(adj.)  [usually before noun] in or connected with a suburb. Exam: life in ____ London |(adj.) boring and ordinary  vd: a ____ lifestyle</t>
+  </si>
+  <si>
+    <t>mythology</t>
+  </si>
+  <si>
+    <t>/mɪˈθɑːlədʒi/</t>
+  </si>
+  <si>
+    <t>(n.) ancient myths in general; the ancient myths of a particular culture, society, etc.</t>
+  </si>
+  <si>
+    <t>myth</t>
+  </si>
+  <si>
+    <t>/mɪθ/</t>
+  </si>
+  <si>
+    <t>(n.) a story from ancient times, especially one that was told to explain natural events or to describe the early history of a people;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalogue </t>
+  </si>
+  <si>
+    <t>/ˈkætəlɔːɡ/</t>
+  </si>
+  <si>
+    <t>(n.) a complete list of items, for example of things that people can look at or buy | (v.) to arrange a list of things in order</t>
+  </si>
+  <si>
+    <t>roam</t>
+  </si>
+  <si>
+    <t>/rəʊm/</t>
+  </si>
+  <si>
+    <t>(v.) Lang thang = wander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seaboard </t>
+  </si>
+  <si>
+    <t>(n.) bờ biển</t>
+  </si>
+  <si>
+    <t>/ˈsiːbɔːrd/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">embodiment </t>
+  </si>
+  <si>
+    <t>(n.) Sự hiện thân, hóa thân của… - Exam: He is the ____ of the young successful businessman</t>
+  </si>
+  <si>
+    <t>/ɪmˈbɑːdimənt/</t>
+  </si>
+  <si>
+    <t>embody</t>
+  </si>
+  <si>
+    <t>̣</t>
+  </si>
+  <si>
+    <t>/ɪmˈbɑːdi/</t>
+  </si>
+  <si>
+    <t>̣(v.) to express or represent an idea or a quality ~ represent</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>/fɔːrs/</t>
+  </si>
+  <si>
+    <t>(n.) Vũ lực, lực lượng, strong effect - Exam: a leader who inspired others with the__ of his personality, The empire was held together by military___. (v.) (+to v,into ving, out of N) eps buoc, bat</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>/ˈɡʌvərn/</t>
+  </si>
+  <si>
+    <t>(v.) to legally control a country or its people and be responsible for introducing new laws, organizing public services, etc.</t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
+    <t>/ˈmentl/</t>
+  </si>
+  <si>
+    <t>(adj.) connected with or happening in the mind; involving the process of thinking - Exam : ___ health | = spiritual</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
+    <t>/luːs/</t>
+  </si>
+  <si>
+    <t>(adj.) not securely fixed where it should be; able to become separated from something, lỏng lẻo,…</t>
+  </si>
+  <si>
+    <t>worship</t>
+  </si>
+  <si>
+    <t>/ˈwɜːrʃɪp/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n.) sự thờ cùng, kính bái, tôn sùg |  (v.) thờ cúng, tôn sùng,…. - Exam The tradition of ancestor __ </t>
+  </si>
+  <si>
+    <t>sacred groves</t>
+  </si>
+  <si>
+    <t>(n.) khu rừng linh thiêng</t>
+  </si>
+  <si>
+    <t>sacred</t>
+  </si>
+  <si>
+    <t>/ˈseɪkrɪd/</t>
+  </si>
+  <si>
+    <t>(adj.) connected with God or a god; considered to be holy, linh thieng</t>
+  </si>
+  <si>
+    <t>grove</t>
+  </si>
+  <si>
+    <t>/ɡrəʊv/</t>
+  </si>
+  <si>
+    <t>bui cay, khom cay</t>
+  </si>
+  <si>
+    <t>cây sồi</t>
+  </si>
+  <si>
+    <t>/əʊk/</t>
+  </si>
+  <si>
+    <t>oak</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>(n.) a building used for religious worship, especially in religions other than Christianity</t>
+  </si>
+  <si>
+    <t>/ˈtempl/</t>
+  </si>
+  <si>
+    <t>an animate being</t>
+  </si>
+  <si>
+    <t>mot sinh vat song : an _______ _____</t>
+  </si>
+  <si>
+    <t>impulse</t>
+  </si>
+  <si>
+    <t>/ˈɪmpʌls/</t>
+  </si>
+  <si>
+    <t>(n.) sự thúc đẩy, động lực, sức đẩy ( về mặt lực vật lý)</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>/ˈkʌstəm/</t>
+  </si>
+  <si>
+    <t>̣̣(n.)an accepted way of behaving or of doing things in a society or a community, thói quen, tục lệ</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>̣(n.) harm done to a person’s or an animal’s body, for example in an accident</t>
+  </si>
+  <si>
+    <t>/ˈɪndʒəri/</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>/ˈfɔːrtʃən/</t>
+  </si>
+  <si>
+    <t>(n.)  a large amount of money, chance or luck</t>
+  </si>
+  <si>
+    <t>insult</t>
+  </si>
+  <si>
+    <t>/ˈɪnsʌlt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n.) sự sỉnh nhục, phỉ báng | (v.) same mean </t>
+  </si>
+  <si>
+    <t>residence</t>
+  </si>
+  <si>
+    <t>/ˈrezɪdəns/</t>
+  </si>
+  <si>
+    <t>(n.) a house, especially a large or impressive one;  the state of living in a particular place</t>
+  </si>
+  <si>
+    <t>harvest</t>
+  </si>
+  <si>
+    <t>/ˈhɑːrvɪst/</t>
+  </si>
+  <si>
+    <t>(n.) the time of year when the crops are gathered in on a farm, etc.; the act of cutting and gathering crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disease </t>
+  </si>
+  <si>
+    <t>/dɪˈziːz/</t>
+  </si>
+  <si>
+    <t>(n.) an illness affecting humans, animals or plants, often caused by infection</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>/ɪnˈfekʃn/</t>
+  </si>
+  <si>
+    <t>(n.) the act or process of causing or getting a disease, nhiem trung,…</t>
+  </si>
+  <si>
+    <t>ceremony</t>
+  </si>
+  <si>
+    <t>/ˈserəməʊni/</t>
+  </si>
+  <si>
+    <t>(n.) a public or religious occasion that includes a series of formal or traditional actions, nghi le</t>
+  </si>
+  <si>
+    <t>ceremonial</t>
+  </si>
+  <si>
+    <t>(adj.) ​relating to or used in a ceremony</t>
+  </si>
+  <si>
+    <t>/ˌserɪˈməʊniəl/</t>
+  </si>
+  <si>
+    <t>fruitfulness</t>
+  </si>
+  <si>
+    <t>/ˈfruːtflnəs/</t>
+  </si>
+  <si>
+    <t>(n.) sự đơm hoa kết trái, su phieu nhieu</t>
+  </si>
+  <si>
+    <t>fruitful</t>
+  </si>
+  <si>
+    <t>/ˈfruːtfl/</t>
+  </si>
+  <si>
+    <t>(adj.) ​producing many useful results = productive</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>/ˈɔːfərɪŋ/</t>
+  </si>
+  <si>
+    <t>(n.) something that is produced for other people to use, watch, enjoy, etc. | something that is given to a god as part of a religious ceremony</t>
+  </si>
+  <si>
+    <t>smog</t>
+  </si>
+  <si>
+    <t>/smɑːɡ/</t>
+  </si>
+  <si>
+    <t>(n.) khois bui</t>
+  </si>
+  <si>
+    <t>smoggy</t>
+  </si>
+  <si>
+    <t>/ˈsmɑːɡi/</t>
+  </si>
+  <si>
+    <t>(n.) (of air) containing pollution that is a mixture of smoke and fog</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>inorganic</t>
+  </si>
+  <si>
+    <t>/ˌɪnɔːrˈɡænɪk/</t>
+  </si>
+  <si>
+    <t>/ɔːrˈɡænɪk/</t>
+  </si>
+  <si>
+    <t>(adj.) not consisting of or coming from any living substances, vo co</t>
+  </si>
+  <si>
+    <t>(adj.) (of food, farming methods, etc.) produced or practised without using artificial chemicals (huu co)</t>
+  </si>
+  <si>
+    <t>bacteria</t>
+  </si>
+  <si>
+    <t>/bækˈtɪriə/</t>
+  </si>
+  <si>
+    <t>the simplest and smallest forms of life, vi khuan</t>
+  </si>
+  <si>
+    <t>feed on</t>
+  </si>
+  <si>
+    <t>(v.) = foster</t>
+  </si>
+  <si>
+    <t>phytoplankton</t>
+  </si>
+  <si>
+    <t>/fīdōˈplaNGktən/</t>
+  </si>
+  <si>
+    <t>thực vật phù du</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>/ˈɪnsekt</t>
+  </si>
+  <si>
+    <t>(adj) connected with your physical senses | Exam  the ____ overload of contemporary culture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contaminant </t>
+  </si>
+  <si>
+    <t>/kənˈtæmɪnənt/</t>
+  </si>
+  <si>
+    <t>(n.) a substance that makes something impure</t>
+  </si>
+  <si>
+    <t>pure</t>
+  </si>
+  <si>
+    <t>impure</t>
+  </si>
+  <si>
+    <t>/ɪmˈpjʊr/</t>
+  </si>
+  <si>
+    <t>(adj.) not pure or clean;</t>
+  </si>
+  <si>
+    <t>/pjʊr/</t>
+  </si>
+  <si>
+    <t>(adj.) clean, complete, very clear; perfect</t>
+  </si>
+  <si>
+    <t>sewage</t>
+  </si>
+  <si>
+    <t>/ˈsuːɪdʒ/</t>
+  </si>
+  <si>
+    <t>(n.) wastewater , nuoc thai</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>/ˈtriːtmənt/</t>
+  </si>
+  <si>
+    <t>(n.)  something that is done to cure an illness or injury, or to make somebody look and feel good, su dieu tri, chua benh, cach doi dai</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>/ˌkɑːnsnˈtreɪʃn/</t>
+  </si>
+  <si>
+    <t>(n.) su tap trung,  mật độ, nồng đọ</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>/ˈvʌlnərəbl/</t>
+  </si>
+  <si>
+    <t>(adj.) weak and easily hurt physically or emotionally</t>
+  </si>
+  <si>
+    <t>lobster</t>
+  </si>
+  <si>
+    <t>/ˈlɑːbstər/</t>
+  </si>
+  <si>
+    <t>(n.) con tom hum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">susceptible </t>
+  </si>
+  <si>
+    <t>(adj.) very likely to be influenced, harmed or affected by something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nervous </t>
+  </si>
+  <si>
+    <t>/ˈnɜːrvəs/</t>
+  </si>
+  <si>
+    <t>(adj.) anxious about something or afraid of something</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>/ˈæŋkʃəs/</t>
+  </si>
+  <si>
+    <t>(adj.) feeling worried or nervous</t>
+  </si>
+  <si>
+    <t>nervous system</t>
+  </si>
+  <si>
+    <t>/ˈnɜːrvəs sɪstəm/</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>(n.) khớp</t>
+  </si>
+  <si>
+    <t>(n.) the system of all the nerves in the body that carries messages between the brain and the rest of the body</t>
+  </si>
+  <si>
+    <t>/dʒɔɪnt/</t>
+  </si>
+  <si>
+    <t>bloodstream</t>
+  </si>
+  <si>
+    <t>/ˈblʌdstriːm/</t>
+  </si>
+  <si>
+    <t>(n.) the blood flowing through the body</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t>/ˈpæŋkriəs/</t>
+  </si>
+  <si>
+    <t>(n.) an organ near the stomach that produces insulin and a liquid that helps the body to digest food (tuy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spur </t>
+  </si>
+  <si>
+    <t>(v.) to encourage somebody to do something or to encourage them to try harder to achieve something = encourage = aspire</t>
+  </si>
+  <si>
+    <t>gland</t>
+  </si>
+  <si>
+    <t>/ɡlænd/</t>
+  </si>
+  <si>
+    <t>(n.) an organ in a person’s or an animal’s body that produces a substance for the body to use; tuyen hach, tuyen le</t>
+  </si>
+  <si>
+    <t>voluntary</t>
+  </si>
+  <si>
+    <t>/ˈvɑːlənteri/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(adj.) tu nguyen - Exam: </t>
+  </si>
+  <si>
+    <t>aggression</t>
+  </si>
+  <si>
+    <t>/əˈɡreʃn/</t>
+  </si>
+  <si>
+    <t>(n.) feelings of anger and hate that may result in threatening or violent behaviour</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>/səˈpres/</t>
+  </si>
+  <si>
+    <t>(v.) (of a government, ruler, etc.) to put an end, often by force, to a group or an activity that is believed to threaten authority, bai bo, xoa xo</t>
+  </si>
+  <si>
+    <t>appetite</t>
+  </si>
+  <si>
+    <t>/ˈæpɪtaɪt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(n.) physical desire for food </t>
+  </si>
+  <si>
+    <t>therapy</t>
+  </si>
+  <si>
+    <t>/ˈθerəpi/</t>
+  </si>
+  <si>
+    <t>(n.) the treatment of a physical problem or an illness</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <t>prescription</t>
+  </si>
+  <si>
+    <t>/prɪˈskrɪpʃn/</t>
+  </si>
+  <si>
+    <t>(n.) don thuoc : The doctor gave me a ____ for antibiotics.</t>
+  </si>
+  <si>
+    <t>(v.)  to tell somebody to take a particular medicine or have a particular treatment: Exam : Valium is usually_____ed to treat anxiety.</t>
+  </si>
+  <si>
+    <t>/prɪˈskraɪb/</t>
+  </si>
+  <si>
+    <t>foolhardy</t>
+  </si>
+  <si>
+    <t>/ˈfuːlhɑːrdi/</t>
+  </si>
+  <si>
+    <t>dại dột</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispense </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(v.) to give out something to people (phan chia) |  prepare medicine and give it to people (pha thuoc) </t>
+  </si>
+  <si>
+    <t>physiology</t>
+  </si>
+  <si>
+    <t>/ˌfɪziˈɑːlədʒi/</t>
+  </si>
+  <si>
+    <t>(n.) the scientific study of the normal functions of living things</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>(n.) the action of forming something; the process of being formed, hinh thanh</t>
+  </si>
+  <si>
+    <t>/fɔːrˈmeɪʃn/</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>/mɑːb/</t>
+  </si>
+  <si>
+    <t>(p.) a large crowd of people, especially one that may become violent or cause trouble</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>/kraʊd/</t>
+  </si>
+  <si>
+    <t>(n.) a large number of people gathered together in a public place, diển viên phụ | (v.) chen chúc, chất đống</t>
+  </si>
+  <si>
+    <t>frighten</t>
+  </si>
+  <si>
+    <t>/ˈfraɪtn/</t>
+  </si>
+  <si>
+    <t>(v.) to make somebody suddenly feel afraid - Exam:  It really ___  me to think how this might have ended.</t>
+  </si>
+  <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>/ˈtaɪmteɪbl/</t>
+  </si>
+  <si>
+    <t>(n.) a chart showing the times at which trains,  buses and planes,... leave and arrive = schedule</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>/ˈfʌŋkʃn/</t>
+  </si>
+  <si>
+    <t>(n.) a special activity or purpose of a person or thing | (v.) to work in the correct way = operate</t>
+  </si>
+  <si>
+    <t>/dɪˈspens/</t>
+  </si>
+  <si>
+    <t>retention</t>
+  </si>
+  <si>
+    <t>/rɪˈtenʃn/</t>
+  </si>
+  <si>
+    <t>(n.) the action of keeping something rather than losing it or stopping it--&gt; verb is retain</t>
+  </si>
+  <si>
+    <t>crutch</t>
+  </si>
+  <si>
+    <t>/krʌtʃ/</t>
+  </si>
+  <si>
+    <t>(n.) cái nạng, 1 vật để chống</t>
+  </si>
+  <si>
+    <t>outlandish</t>
+  </si>
+  <si>
+    <t>/aʊtˈlændɪʃ/</t>
+  </si>
+  <si>
+    <t>(adj.) = bizarre = weird : xa lạ, hẻo lánh, ngoai quoc. - Exam: As the show progressed, it got ever more ____.</t>
+  </si>
+  <si>
+    <t>disturbance</t>
+  </si>
+  <si>
+    <t>/dɪˈstɜːrbəns/</t>
+  </si>
+  <si>
+    <t>(n.) actions that make you stop what you are doing, or that upset the normal state that something is in; xáo trộn, cuộc lộn xộn</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>/dɪˈstɜːrb/</t>
+  </si>
+  <si>
+    <t>(v.) to interrupt somebody when they are trying to work, sleep, etc.</t>
+  </si>
+  <si>
+    <t>amnesia</t>
+  </si>
+  <si>
+    <t>/æmˈniːʒə/</t>
+  </si>
+  <si>
+    <t>(n.) mất trí nhớ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mnemonic </t>
+  </si>
+  <si>
+    <t>/nɪˈmɑːnɪk/</t>
+  </si>
+  <si>
+    <t>(adj.) helping you to remember something</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>/bəʊn/</t>
+  </si>
+  <si>
+    <t>(n.) any of the hard parts that form the skeleton of the body of a human or an animal</t>
+  </si>
+  <si>
+    <t>fibrous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibre </t>
+  </si>
+  <si>
+    <t>/ˈfaɪbər/</t>
+  </si>
+  <si>
+    <t>(n.) chất xơ</t>
+  </si>
+  <si>
+    <t>(adj.) made of many fibres; looking like fibres</t>
+  </si>
+  <si>
+    <t>/ˈfaɪbrəs/</t>
+  </si>
+  <si>
+    <t>weld</t>
+  </si>
+  <si>
+    <t>/weld/</t>
+  </si>
+  <si>
+    <t>(n.) mối hàn | (v.) hanf = solder</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>/skʌl/</t>
+  </si>
+  <si>
+    <t>(n.) the bone structure that forms the head and surrounds and protects the brain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligament </t>
+  </si>
+  <si>
+    <t>/ˈlɪɡəmənt/</t>
+  </si>
+  <si>
+    <t>(n.) a strong band of tissue in the body that connects bones and supports organs and keeps them in position, dây chằng</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>/rəʊp/</t>
+  </si>
+  <si>
+    <t>(n.) thừng | (v.) buộc bằng dây</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>/ˈkeɪbl/</t>
+  </si>
+  <si>
+    <t>(n.)  a set of wires, covered in plastic or rubber, that carries electricity, phone signals, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire </t>
+  </si>
+  <si>
+    <t>(n.) dây điện</t>
+  </si>
+  <si>
+    <t>/ˈwaɪə(r)/</t>
+  </si>
+  <si>
+    <t>cushion</t>
+  </si>
+  <si>
+    <t>/ˈkʊʃn</t>
+  </si>
+  <si>
+    <t>(v.) to make the effect of a fall or hit less severe</t>
+  </si>
+  <si>
+    <t>feather</t>
+  </si>
+  <si>
+    <t>/ˈfeðər/</t>
+  </si>
+  <si>
+    <t>(n.) lông vũ</t>
+  </si>
+  <si>
+    <t>abrasion</t>
+  </si>
+  <si>
+    <t>(n.) a damaged area of the skin where it has been rubbed against something hard and rough (vet tray, xuoc da,…)</t>
+  </si>
+  <si>
+    <t>/əˈbreɪʒn/</t>
+  </si>
+  <si>
+    <t>abrade</t>
+  </si>
+  <si>
+    <t>/əˈbreɪd/</t>
+  </si>
+  <si>
+    <t>(v.) cọ xát, mài mòn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cartilage </t>
+  </si>
+  <si>
+    <t>/ˈkɑːrtɪlɪdʒ/</t>
+  </si>
+  <si>
+    <t>(n.) the strong white tissue that is important in supporting and connecting parts of the body, sụn</t>
+  </si>
+  <si>
+    <t>friction</t>
+  </si>
+  <si>
+    <t>/ˈfrɪkʃn/</t>
+  </si>
+  <si>
+    <t>(n.) ma sát, co sat,…</t>
+  </si>
+  <si>
+    <t>splinter</t>
+  </si>
+  <si>
+    <t>/ˈsplin(t)ər/</t>
+  </si>
+  <si>
+    <t>(n.) mảnh vụn = shard (/ʃɑːrd) = fragment = debris</t>
+  </si>
+  <si>
+    <t>spine</t>
+  </si>
+  <si>
+    <t>/spaɪn/</t>
+  </si>
+  <si>
+    <t>(n.) xương sống = backbone</t>
+  </si>
+  <si>
+    <t>lubricant</t>
+  </si>
+  <si>
+    <t>/ˈluːbrɪkənt/</t>
+  </si>
+  <si>
+    <t>(n.) chất bôi trơn --&gt; verb is _____cate</t>
+  </si>
+  <si>
+    <t>knuckle</t>
+  </si>
+  <si>
+    <t>/ˈnʌkl/</t>
+  </si>
+  <si>
+    <t>(n.) any of the joints in the fingers, especially those connecting the fingers to the rest of the hand</t>
+  </si>
+  <si>
+    <t>/ˈmembreɪn/</t>
+  </si>
+  <si>
+    <t>(n.) a thin layer of skin or tissue that connects or covers parts inside the body</t>
+  </si>
+  <si>
+    <t>nourish</t>
+  </si>
+  <si>
+    <t>/ˈnɜːrɪʃ/</t>
+  </si>
+  <si>
+    <t>(v.) o keep a person, an animal or a plant alive and healthy with food, etc. nuoi duong</t>
+  </si>
+  <si>
+    <t>hinge</t>
+  </si>
+  <si>
+    <t>/hɪndʒ/</t>
+  </si>
+  <si>
+    <t>(n.) khớp nối, bản lề</t>
+  </si>
+  <si>
+    <t>ape</t>
+  </si>
+  <si>
+    <t>/eɪp/</t>
+  </si>
+  <si>
+    <t>(n.) vượn</t>
+  </si>
+  <si>
+    <t>pivot</t>
+  </si>
+  <si>
+    <t>/ˈpɪvət/</t>
+  </si>
+  <si>
+    <t>(v.) xoay quanh trục</t>
   </si>
 </sst>
 </file>
@@ -2929,10 +3845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DB9808-0C27-4DDE-9B79-DC008CD7D6E9}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2993,7 +3909,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>60</v>
@@ -3075,174 +3991,224 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" t="s">
         <v>339</v>
-      </c>
-      <c r="C15" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C20" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B22" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C22" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C23" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B24" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C24" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B25" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C25" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C26" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="C27" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="B28" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>766</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C29" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>781</v>
+        <v>995</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>785</v>
+        <v>694</v>
       </c>
       <c r="C30" t="s">
-        <v>784</v>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1130</v>
       </c>
     </row>
   </sheetData>
@@ -3252,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE64388E-375C-48BC-B635-2FF4FDBE5675}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3278,46 +4244,230 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
-        <v>591</v>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>875</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>880</v>
+      </c>
+      <c r="B7" t="s">
+        <v>879</v>
+      </c>
+      <c r="C7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C8" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>940</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>945</v>
+      </c>
+      <c r="B10" t="s">
+        <v>946</v>
+      </c>
+      <c r="C10" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>948</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>543</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>568</v>
+      </c>
+      <c r="B19" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>972</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C20" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
@@ -3327,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2C847E-056B-4202-BBA8-52E66520D3F2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3353,103 +4503,125 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C11" t="s">
-        <v>367</v>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C12" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>892</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C13" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -3459,10 +4631,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495DA0CA-139B-446C-AC96-0962609274D4}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3485,271 +4657,304 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
-        <v>695</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B4" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="C4" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="C5" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="C6" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="C7" t="s">
-        <v>710</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C8" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C9" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="C10" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C11" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C12" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C13" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
       <c r="C14" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="C15" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="C16" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="C17" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="C18" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="C19" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="C20" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="C21" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="C22" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="C23" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="C24" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="C25" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="C26" t="s">
-        <v>820</v>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>901</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C27" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -3760,10 +4965,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5029D4DC-3DE8-4552-BA6E-F491BD8828D6}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3781,40 +4986,322 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>821</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C6" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C9" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>851</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>861</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>867</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C12" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>872</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C14" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>881</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>886</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C16" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>889</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C17" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>895</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C18" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>913</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C19" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>916</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>925</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C21" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B62730-AE31-4DC7-A0CF-F89B06A396FA}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="141.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -3822,12 +5309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3850,35 +5337,134 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="C3" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="C4" t="s">
-        <v>779</v>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>969</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>977</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>980</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C9" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>
@@ -3889,10 +5475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F7CA-2CED-4B85-AB80-75C1942176CB}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3915,178 +5501,189 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="C8" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="C9" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="C10" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="C11" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="C12" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="C13" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="C14" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="C15" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="C16" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="C17" t="s">
-        <v>829</v>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
@@ -4096,10 +5693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661B8C3-0E49-4D30-917C-03A47040CE92}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4122,359 +5719,370 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="C4" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C8" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C9" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C11" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C13" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C16" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C18" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C19" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C20" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C21" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C22" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C23" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C24" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="C25" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="C26" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="C27" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="C28" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="C29" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="C30" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C31" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="C32" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C33" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="C34" t="s">
-        <v>715</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>845</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C35" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -4484,10 +6092,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0A82E7-5AE2-4B25-9645-D3DB487B6DC3}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4510,314 +6118,325 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C27" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="B28" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C28" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="C29" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="C30" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="C31" t="s">
-        <v>810</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>839</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C32" t="s">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -4827,10 +6446,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2C512-0C85-4DBA-8540-BE2BFA5C9A56}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4881,7 +6500,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4911,7 +6530,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5016,13 +6635,208 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="C19" t="s">
-        <v>814</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>907</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C20" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>910</v>
+      </c>
+      <c r="B21" t="s">
+        <v>911</v>
+      </c>
+      <c r="C21" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>943</v>
+      </c>
+      <c r="C22" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>963</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -5032,10 +6846,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4925E11F-439A-41A6-AB9B-3D2BE73FE6D7}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5064,92 +6878,169 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
         <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C10" t="s">
-        <v>447</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>934</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>935</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C12" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>951</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C13" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>954</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C14" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>955</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C15" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>960</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C16" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>966</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C17" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -5159,10 +7050,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B614F6-0F1E-4487-855D-86FE2011D45F}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5185,513 +7076,568 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
         <v>224</v>
-      </c>
-      <c r="C18" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" t="s">
         <v>235</v>
-      </c>
-      <c r="C22" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
         <v>236</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C23" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C39" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C47" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C48" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>858</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C49" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>898</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C50" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
@@ -5701,10 +7647,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018DF252-9DA3-4B44-935B-1B48CD20DDA6}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5727,402 +7673,447 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
         <v>374</v>
-      </c>
-      <c r="B5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C13" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C25" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B26" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C32" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C33" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C34" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B35" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C35" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C36" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="C37" t="s">
-        <v>667</v>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>855</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C38" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>928</v>
+      </c>
+      <c r="B39" t="s">
+        <v>929</v>
+      </c>
+      <c r="C39" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>931</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C40" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E8D8B6-12F0-4B6A-BC61-D1A6EF739E2A}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6145,301 +8136,384 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>534</v>
-      </c>
-      <c r="B3" t="s">
-        <v>535</v>
+        <v>478</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="C3" t="s">
-        <v>536</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>480</v>
+        <v>484</v>
+      </c>
+      <c r="B5" t="s">
+        <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>985</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>483</v>
+        <v>988</v>
       </c>
       <c r="C6" t="s">
-        <v>484</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
       </c>
       <c r="C7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>502</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C13" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>516</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="C15" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>516</v>
-      </c>
-      <c r="B16" t="s">
-        <v>517</v>
+        <v>525</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="C16" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B17" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="C17" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="B18" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="C18" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>527</v>
+        <v>556</v>
+      </c>
+      <c r="B19" t="s">
+        <v>557</v>
       </c>
       <c r="C19" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>983</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>530</v>
+        <v>984</v>
       </c>
       <c r="C20" t="s">
-        <v>529</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>537</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>538</v>
+        <v>989</v>
+      </c>
+      <c r="B21" t="s">
+        <v>990</v>
       </c>
       <c r="C21" t="s">
-        <v>539</v>
+        <v>991</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>546</v>
-      </c>
-      <c r="B22" t="s">
-        <v>547</v>
+        <v>992</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>993</v>
       </c>
       <c r="C22" t="s">
-        <v>548</v>
+        <v>994</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>549</v>
-      </c>
-      <c r="B23" t="s">
-        <v>550</v>
+        <v>997</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>998</v>
       </c>
       <c r="C23" t="s">
-        <v>551</v>
+        <v>999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>552</v>
+        <v>1026</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>553</v>
+        <v>1027</v>
       </c>
       <c r="C24" t="s">
-        <v>554</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>555</v>
+        <v>1029</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>556</v>
+        <v>1031</v>
       </c>
       <c r="C25" t="s">
-        <v>557</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>564</v>
-      </c>
-      <c r="B26" t="s">
-        <v>565</v>
+        <v>1048</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1049</v>
       </c>
       <c r="C26" t="s">
-        <v>566</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>568</v>
-      </c>
-      <c r="B27" t="s">
-        <v>569</v>
+        <v>1069</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1070</v>
       </c>
       <c r="C27" t="s">
-        <v>570</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>571</v>
-      </c>
-      <c r="B28" t="s">
-        <v>572</v>
+        <v>1081</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1082</v>
       </c>
       <c r="C28" t="s">
-        <v>573</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>580</v>
-      </c>
-      <c r="B29" t="s">
-        <v>581</v>
+        <v>1084</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>582</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>552</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
